--- a/biology/Botanique/Eudorina/Eudorina.xlsx
+++ b/biology/Botanique/Eudorina/Eudorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudorina est un genre d'algues vertes de la famille des Volvocaceae.
 Les Eudorina sont des colonies ovoïdes, ellipsoïdales ou cylindriques contenant 16 ou 32 cellules disposées radialement à la périphérie d'une matrice gélatineuse de forme sphérique. La matrice forme ou non une enveloppe (selon les espèces).Les cellules ovoïdes ou sphériques, chacune munie de 2 flagelles égaux, possèdent un stigma (tache pigmentée correspondant à un œil primitif), 2 vacuoles contractiles à la base d'un flagelle et un chloroplaste massif muni d'un ou plusieurs pyrénoïdes.
@@ -513,9 +525,11 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AlgaeBase                                           (1er avril 2018)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AlgaeBase                                           (1er avril 2018)
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (1er avril 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (1er avril 2018) :
 Eudorina californica (Shaw) Goldstein
 Eudorina charkowiensis
 Eudorina elegans Ehrenberg, 1832
@@ -578,7 +594,9 @@
           <t>Genre proche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Volvox forme aussi des colonies mobiles grâce à des flagelles.
 </t>
